--- a/src/main/resources/template/excel/export/beyDayAnalysisExportTemplate.xlsx
+++ b/src/main/resources/template/excel/export/beyDayAnalysisExportTemplate.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21315" windowHeight="8730"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21315" windowHeight="8730" tabRatio="477"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
@@ -148,6 +148,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="2">
+    <numFmt numFmtId="176" formatCode="0.0000_ "/>
+    <numFmt numFmtId="177" formatCode="0.0000_);[Red]\(0.0000\)"/>
+  </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -248,7 +252,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -268,12 +272,30 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -580,8 +602,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:K1"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -590,26 +612,29 @@
     <col min="3" max="3" width="21.625" style="3" customWidth="1"/>
     <col min="4" max="4" width="22" style="3" customWidth="1"/>
     <col min="5" max="5" width="26.5" style="3" customWidth="1"/>
-    <col min="6" max="8" width="19.75" customWidth="1"/>
-    <col min="9" max="10" width="20.75" style="3" customWidth="1"/>
-    <col min="11" max="11" width="25.125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="19.75" customWidth="1"/>
+    <col min="7" max="7" width="19.75" style="12" customWidth="1"/>
+    <col min="8" max="8" width="19.75" style="18" customWidth="1"/>
+    <col min="9" max="9" width="20.75" style="15" customWidth="1"/>
+    <col min="10" max="10" width="20.75" style="3" customWidth="1"/>
+    <col min="11" max="11" width="25.125" style="15" customWidth="1"/>
     <col min="12" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
     </row>
     <row r="2" spans="1:11" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -630,19 +655,19 @@
       <c r="F2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="13" t="s">
         <v>17</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="13" t="s">
         <v>21</v>
       </c>
     </row>
@@ -665,19 +690,19 @@
       <c r="F3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="16" t="s">
         <v>18</v>
       </c>
       <c r="J3" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="K3" s="14" t="s">
         <v>22</v>
       </c>
     </row>
@@ -690,7 +715,7 @@
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576"/>
   </dataValidations>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/src/main/resources/template/excel/export/beyDayAnalysisExportTemplate.xlsx
+++ b/src/main/resources/template/excel/export/beyDayAnalysisExportTemplate.xlsx
@@ -34,7 +34,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>jx:area(lastCell="K3")</t>
+          <t>jx:area(lastCell="J3")</t>
         </r>
       </text>
     </comment>
@@ -47,7 +47,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>jx:each(items="reportList" var="obj" lastCell="K3")</t>
+          <t>jx:each(items="reportList" var="obj" lastCell="J3")</t>
         </r>
       </text>
     </comment>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>机构资料</t>
     <phoneticPr fontId="7" type="noConversion"/>
@@ -78,10 +78,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>${obj.costAvgYear}</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>${obj.dateStr}</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -103,9 +99,6 @@
   <si>
     <t>${obj.areaSize}</t>
     <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>费用均摊年数</t>
   </si>
   <si>
     <t>${obj.dayFixedAvgAmount}</t>
@@ -252,7 +245,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -269,12 +262,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -296,12 +283,83 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -321,7 +379,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="C7EDCC"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -600,10 +658,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -612,33 +670,31 @@
     <col min="3" max="3" width="21.625" style="3" customWidth="1"/>
     <col min="4" max="4" width="22" style="3" customWidth="1"/>
     <col min="5" max="5" width="26.5" style="3" customWidth="1"/>
-    <col min="6" max="6" width="19.75" customWidth="1"/>
-    <col min="7" max="7" width="19.75" style="12" customWidth="1"/>
-    <col min="8" max="8" width="19.75" style="18" customWidth="1"/>
-    <col min="9" max="9" width="20.75" style="15" customWidth="1"/>
-    <col min="10" max="10" width="20.75" style="3" customWidth="1"/>
-    <col min="11" max="11" width="25.125" style="15" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="3"/>
+    <col min="6" max="6" width="19.75" style="10" customWidth="1"/>
+    <col min="7" max="7" width="19.75" style="16" customWidth="1"/>
+    <col min="8" max="8" width="20.75" style="13" customWidth="1"/>
+    <col min="9" max="9" width="20.75" style="3" customWidth="1"/>
+    <col min="10" max="10" width="25.125" style="13" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
     </row>
-    <row r="2" spans="1:11" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>1</v>
@@ -647,33 +703,30 @@
         <v>2</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="13" t="s">
+      <c r="G2" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="I2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="13" t="s">
-        <v>21</v>
-      </c>
     </row>
-    <row r="3" spans="1:11" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>3</v>
@@ -682,33 +735,30 @@
         <v>4</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="17" t="s">
+      <c r="G3" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="16" t="s">
+      <c r="I3" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="J3" s="12" t="s">
         <v>20</v>
-      </c>
-      <c r="K3" s="14" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A1:J1"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="1">

--- a/src/main/resources/template/excel/export/beyDayAnalysisExportTemplate.xlsx
+++ b/src/main/resources/template/excel/export/beyDayAnalysisExportTemplate.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace_jxc\okdeer-jxc-web\src\main\resources\template\excel\export\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\yangyq02\桌面\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -34,7 +34,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>jx:area(lastCell="J3")</t>
+          <t>jx:area(lastCell="Q3")</t>
         </r>
       </text>
     </comment>
@@ -47,7 +47,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>jx:each(items="reportList" var="obj" lastCell="J3")</t>
+          <t>jx:each(items="reportList" var="obj" lastCell="Q3")</t>
         </r>
       </text>
     </comment>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>机构资料</t>
     <phoneticPr fontId="7" type="noConversion"/>
@@ -101,39 +101,96 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
+    <t>日盈亏平衡点</t>
+  </si>
+  <si>
+    <t>${obj.bepDay}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>${obj.dayTotalAmount}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>客单数</t>
+  </si>
+  <si>
+    <t>${obj.dayOrderNum}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>客单价</t>
+  </si>
+  <si>
+    <t>${obj.dayAvgPrice}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>当天销售金额</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>当天销售成本</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>${obj.dayTotalCost}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>当天毛利金额</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>${obj.dayTotalProfit}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>上月毛利率</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>${obj.lastMonthProfitMargin}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>${obj.lastMonthCost}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>上月成本小计</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
     <t>${obj.dayFixedAvgAmount}</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>日均开店成本</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>日盈亏平衡点</t>
-  </si>
-  <si>
-    <t>${obj.bepDay}</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>销售额</t>
-  </si>
-  <si>
-    <t>${obj.dayTotalAmount}</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>客单数</t>
-  </si>
-  <si>
-    <t>${obj.dayOrderNum}</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>客单价</t>
-  </si>
-  <si>
-    <t>${obj.dayAvgPrice}</t>
+    <t>开店成本(每月均摊)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>上月经营成本</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>${obj.lastMonthManageCost}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>${obj.lastMonthMaterielAmount}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>上月物料领用金额</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>上月报损金额</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>${obj.lastMonthFaultyAmount}</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -141,9 +198,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
-    <numFmt numFmtId="176" formatCode="0.0000_ "/>
-    <numFmt numFmtId="177" formatCode="0.0000_);[Red]\(0.0000\)"/>
+  <numFmts count="3">
+    <numFmt numFmtId="176" formatCode="0.0000_);[Red]\(0.0000\)"/>
+    <numFmt numFmtId="177" formatCode="0.0000_ ;[Red]\-0.0000\ "/>
+    <numFmt numFmtId="178" formatCode="0.00_ ;[Red]\-0.00\ "/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -245,7 +303,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -265,26 +323,22 @@
     <xf numFmtId="176" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="177" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="177" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -292,74 +346,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -379,7 +365,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="C7EDCC"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -658,10 +644,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3:Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -671,28 +657,34 @@
     <col min="4" max="4" width="22" style="3" customWidth="1"/>
     <col min="5" max="5" width="26.5" style="3" customWidth="1"/>
     <col min="6" max="6" width="19.75" style="10" customWidth="1"/>
-    <col min="7" max="7" width="19.75" style="16" customWidth="1"/>
-    <col min="8" max="8" width="20.75" style="13" customWidth="1"/>
-    <col min="9" max="9" width="20.75" style="3" customWidth="1"/>
-    <col min="10" max="10" width="25.125" style="13" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="3"/>
+    <col min="7" max="15" width="20.75" style="9" customWidth="1"/>
+    <col min="16" max="16" width="20.75" style="3" customWidth="1"/>
+    <col min="17" max="17" width="25.125" style="9" customWidth="1"/>
+    <col min="18" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11"/>
     </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
@@ -709,22 +701,43 @@
         <v>9</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="8" t="s">
         <v>19</v>
       </c>
+      <c r="I2" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="O2" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q2" s="8" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="3" spans="1:10" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>5</v>
       </c>
@@ -740,25 +753,46 @@
       <c r="E3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="15" t="s">
-        <v>14</v>
+      <c r="F3" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>13</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" s="12" t="s">
         <v>20</v>
+      </c>
+      <c r="I3" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="L3" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="M3" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="N3" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="O3" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="P3" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q3" s="15" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A1:Q1"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="1">

--- a/src/main/resources/template/excel/export/beyDayAnalysisExportTemplate.xlsx
+++ b/src/main/resources/template/excel/export/beyDayAnalysisExportTemplate.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\yangyq02\桌面\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\java\workspace\okdeer-jxc-web\src\main\resources\template\excel\export\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -34,7 +34,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>jx:area(lastCell="Q3")</t>
+          <t>jx:area(lastCell="R3")</t>
         </r>
       </text>
     </comment>
@@ -47,7 +47,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>jx:each(items="reportList" var="obj" lastCell="Q3")</t>
+          <t>jx:each(items="reportList" var="obj" lastCell="R3")</t>
         </r>
       </text>
     </comment>
@@ -56,11 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
-  <si>
-    <t>机构资料</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>机构编码</t>
     <phoneticPr fontId="7" type="noConversion"/>
@@ -191,13 +187,25 @@
   </si>
   <si>
     <t>${obj.lastMonthFaultyAmount}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>门店日盈亏平衡分析</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>盈亏金额</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>${obj.profitLossAmount}</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="0.0000_);[Red]\(0.0000\)"/>
     <numFmt numFmtId="177" formatCode="0.0000_ ;[Red]\-0.0000\ "/>
@@ -325,20 +333,20 @@
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -358,7 +366,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -644,10 +652,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:R3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3:Q3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -656,143 +664,150 @@
     <col min="3" max="3" width="21.625" style="3" customWidth="1"/>
     <col min="4" max="4" width="22" style="3" customWidth="1"/>
     <col min="5" max="5" width="26.5" style="3" customWidth="1"/>
-    <col min="6" max="6" width="19.75" style="10" customWidth="1"/>
-    <col min="7" max="15" width="20.75" style="9" customWidth="1"/>
-    <col min="16" max="16" width="20.75" style="3" customWidth="1"/>
-    <col min="17" max="17" width="25.125" style="9" customWidth="1"/>
-    <col min="18" max="16384" width="9" style="3"/>
+    <col min="6" max="7" width="19.75" style="10" customWidth="1"/>
+    <col min="8" max="16" width="20.75" style="9" customWidth="1"/>
+    <col min="17" max="17" width="20.75" style="3" customWidth="1"/>
+    <col min="18" max="18" width="25.125" style="9" customWidth="1"/>
+    <col min="19" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+    </row>
+    <row r="2" spans="1:18" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="11"/>
+      <c r="C2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="O2" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="P2" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="R2" s="8" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="2" spans="1:17" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="5" t="s">
+    <row r="3" spans="1:18" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="C3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F3" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="8" t="s">
+      <c r="G3" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="J3" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="K3" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="L3" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="L2" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="M2" s="8" t="s">
+      <c r="N3" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="N2" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="O2" s="8" t="s">
+      <c r="O3" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="P3" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="Q3" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="Q2" s="8" t="s">
+      <c r="R3" s="14" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="J3" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="K3" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="L3" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="M3" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="N3" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="O3" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="P3" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q3" s="15" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:Q1"/>
+    <mergeCell ref="A1:R1"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="1">
